--- a/结构设计/板计算/板配筋计算.xlsx
+++ b/结构设计/板计算/板配筋计算.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D07A9D-81E3-4FCC-92E0-72A8A8A4A895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6159C2-8B80-462A-9E75-50956ED73310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="492" windowWidth="19848" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="单向板计算" sheetId="1" r:id="rId1"/>
+    <sheet name="双向板计算" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>截面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +63,34 @@
     <t>选用钢筋直径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>构造配筋面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1 连续板计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB6(WB7、WB8)  连续板计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2 连续板计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9 连续板计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +241,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,40 +296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -312,7 +348,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2844E5-5AC3-4AA9-8340-596E7F26A2BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -366,7 +402,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCA2565-13D0-46DA-A253-4D6E1C4B52B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -420,7 +456,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA249C9-2087-446D-856F-A353E9F89D78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -458,7 +494,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>182880</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>193128</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
@@ -474,7 +510,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1502E2F1-EC08-42FF-9CFB-148A6BCC487E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -528,7 +564,7 @@
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6AF8FE-C17C-4C3A-95B1-8AF0931665AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -582,7 +618,7 @@
                   <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A762F0-ADCF-454D-A53E-460358A2D400}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -636,7 +672,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBB09B7-B498-4899-9936-672A2F3CD8CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -690,7 +726,2167 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEF4AC6-96AB-4E96-B768-8C6F17484983}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Object 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7880ED-E2AE-499A-AAB8-3D8975683F2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Object 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59BB132-DB75-4E99-B915-2E3513566B3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Object 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A624BF-7BF5-4B08-AE63-AFBF0B605DBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Object 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1C8F51-3432-4687-81B4-C97CC8D82855}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1123" name="Object 99" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADF4770-A12C-48DF-91E5-11805EFF56C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1124" name="Object 100" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6356F5-5AC7-4C29-95A5-BB87F3ED3A8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1125" name="Object 101" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C351D774-3FDA-4084-A9A5-DFCF3A107719}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1126" name="Object 102" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DFD7FF-19CE-4194-829A-4C791935D454}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1127" name="Object 103" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC8EA07-9D2E-45BD-9264-29E8CF7F9595}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1128" name="Object 104" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858D6B48-C65A-442E-A285-3F3E3F67F93A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1129" name="Object 105" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFB7EE7-E875-4E6D-BE3C-BA6AD2485E26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1130" name="Object 106" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC8DA24-D788-43A5-90E5-4CF93CA0845A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1131" name="Object 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D4C171-6553-493B-B4B4-80C4B17489CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1132" name="Object 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E08CA-5B90-4C57-A991-58A5CF1A28DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1133" name="Object 109" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D5DE42-C35F-4F2E-ADDF-34C3638D933E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1134" name="Object 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49230091-9A25-463B-BD2C-F7FDC3C5FCD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1135" name="Object 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D582E078-A726-49B7-95FE-D98A14932A0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1136" name="Object 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB392AF3-7CA8-46F1-9BE8-38FF4910EAEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1137" name="Object 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D170848-4AAA-422B-93B7-38E7E0019B02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1138" name="Object 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1138"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43F9BBB-EE81-44CC-A7D2-1D5045411F6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1139" name="Object 115" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1139"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC9F58F-E3B1-4EEF-A387-E35E984DCB2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1140" name="Object 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C1DC09-23B6-4FD8-8EAF-90AB013FFF45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1141" name="Object 117" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1141"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C35D460-1901-412C-813B-B3C43244EA00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1142" name="Object 118" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD00182-BA1F-453B-91F6-A957E39C10AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1143" name="Object 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90714464-4E84-4CB7-8983-FBA1A6FEBDA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1144" name="Object 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD60EC2-D4C4-44EE-8ED3-27AACA0EE304}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1145" name="Object 121" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A32FB8D-6EF8-4343-9C3C-E4E5EDE1C5F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1146" name="Object 122" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C140B6F2-7B63-4C74-BE57-D9B88705F272}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1147" name="Object 123" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1147"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFEA454-4B1E-4B9D-AAF0-DAD0300E11C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1148" name="Object 124" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A0C755-9158-46F1-AECE-8991B3F926F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1149" name="Object 125" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BD203B-03B5-4F35-8CA8-6C30CCC613BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1150" name="Object 126" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A069BC68-6022-42D2-BAE2-2BF496C07306}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1151" name="Object 127" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B2EC8C-0ACE-4AB3-98CD-98A9AB1AB594}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1152" name="Object 128" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1152"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E143C319-DA10-4587-9ED5-2AEC667C7B85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1153" name="Object 129" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1153"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE90CC4F-20B6-4C77-A9B2-0B96465424E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1154" name="Object 130" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1154"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2254609-170E-4AC4-B0CB-B5F2F1D8E23E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>975360</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1155" name="Object 131" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1155"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BA2B3D-1EA3-4037-BC10-E79CCD150CBE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1156" name="Object 132" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F5935C-7B8F-41C6-A9DE-61C22AAAE05D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1157" name="Object 133" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1157"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBEFE64-0CFC-4418-BDE9-9D31341D3ADD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1158" name="Object 134" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE46C17-AC39-4636-8291-10D9635936B2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -990,10 +3186,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="H115" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1028,1195 +3224,3646 @@
     </row>
     <row r="5" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:24" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
         <v>8</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="16"/>
-      <c r="V7" s="18" t="s">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17">
+        <f>FLOOR((O7/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T7" s="18"/>
+      <c r="V7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20">
+      <c r="W7" s="13"/>
+      <c r="X7" s="10">
         <f>IF(M$10&gt;150, MIN(250, 1.5*M$10), 200)</f>
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>14.3</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6" t="s">
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6">
+      <c r="R8" s="20"/>
+      <c r="S8" s="20">
         <v>270</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:24" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="17">
+      <c r="L10" s="9">
         <v>1</v>
       </c>
-      <c r="M10" s="15">
-        <v>110</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="M10" s="8">
+        <v>110</v>
+      </c>
+      <c r="N10" s="8">
         <v>25</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="8">
         <f>M10-N10</f>
         <v>85</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="8">
         <v>5.5</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="8">
         <f>(ABS(P10)*10^6/(1*O$8*1000*O10^2))</f>
         <v>5.3233963268565346E-2</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="8">
         <f>1 - SQRT(1-2*Q10)</f>
         <v>5.473174523690405E-2</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="8">
         <f>R10*1*O$8*1000*O10/S$8</f>
         <v>246.39420864984029</v>
       </c>
-      <c r="T10" s="21" t="str">
-        <f>IF((PI()*(8/2)^2*1000/200)&gt;S10, "构造配筋 #8@200", "#8@"&amp;FLOOR((O$7/2)^2*PI()*1000/S10, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S10, 20)),1) &amp; "mm")</f>
-        <v>构造配筋 #8@200</v>
+      <c r="T10" s="11" t="str">
+        <f>IF(S$7&gt;S10, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S10, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S10, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="17">
+      <c r="L11" s="9">
         <f t="shared" ref="L11:L24" si="0">IF(CODE(L10)&lt;CODE("A"), L10+1, CHAR(CODE(L10) + 1))</f>
         <v>2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="8">
         <f>M10</f>
         <v>110</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="8">
         <v>25</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="8">
         <f t="shared" ref="O11:O28" si="1">M11-N11</f>
         <v>85</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q11" s="15">
-        <f t="shared" ref="Q11:Q41" si="2">(ABS(P11)*10^6/(1*O$8*1000*O11^2))</f>
+      <c r="Q11" s="8">
+        <f t="shared" ref="Q11:Q40" si="2">(ABS(P11)*10^6/(1*O$8*1000*O11^2))</f>
         <v>1.7422024342439568E-2</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="8">
         <f t="shared" ref="R11:R40" si="3">1 - SQRT(1-2*Q11)</f>
         <v>1.7576490857878047E-2</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="8">
         <f t="shared" ref="S11:S28" si="4">R11*1*O$8*1000*O11/S$8</f>
         <v>79.126757917595441</v>
       </c>
-      <c r="T11" s="21" t="str">
-        <f t="shared" ref="T11:T40" si="5">IF((PI()*(8/2)^2*1000/200)&gt;S11, "构造配筋 #8@200", "#8@"&amp;FLOOR((O$7/2)^2*PI()*1000/S11, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S11, 20)),1) &amp; "mm")</f>
-        <v>构造配筋 #8@200</v>
+      <c r="T11" s="11" t="str">
+        <f t="shared" ref="T11:T40" si="5">IF(S$7&gt;S11, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S11, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S11, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="8">
         <f t="shared" ref="M12:M40" si="6">M11</f>
         <v>110</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="8">
         <v>25</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="8">
         <v>3</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="8">
         <f t="shared" si="2"/>
         <v>2.9036707237399279E-2</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="8">
         <f t="shared" si="3"/>
         <v>2.947097646427832E-2</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="8">
         <f t="shared" si="4"/>
         <v>132.67396997159372</v>
       </c>
-      <c r="T12" s="21" t="str">
+      <c r="T12" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="17">
+      <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="8">
         <v>25</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="8">
         <f t="shared" si="2"/>
         <v>2.7100926754905993E-2</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="8">
         <f t="shared" si="3"/>
         <v>2.7478459626632201E-2</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="8">
         <f t="shared" si="4"/>
         <v>123.70395435619052</v>
       </c>
-      <c r="T13" s="21" t="str">
+      <c r="T13" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="17">
+      <c r="L14" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="8">
         <v>25</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="8">
         <f t="shared" si="2"/>
         <v>2.226147554867278E-2</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="8">
         <f t="shared" si="3"/>
         <v>2.2514936736803937E-2</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="8">
         <f t="shared" si="4"/>
         <v>101.3589096429081</v>
       </c>
-      <c r="T14" s="21" t="str">
+      <c r="T14" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="17">
+      <c r="L15" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="8">
         <v>25</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="8">
         <f t="shared" si="2"/>
         <v>2.3229365789919423E-2</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="8">
         <f t="shared" si="3"/>
         <v>2.3505622944934079E-2</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="8">
         <f t="shared" si="4"/>
         <v>105.81883218358287</v>
       </c>
-      <c r="T15" s="21" t="str">
+      <c r="T15" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="17">
+      <c r="L16" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="8">
         <v>25</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="8">
         <f t="shared" si="2"/>
         <v>2.3229365789919423E-2</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="8">
         <f t="shared" si="3"/>
         <v>2.3505622944934079E-2</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="8">
         <f t="shared" si="4"/>
         <v>105.81883218358287</v>
       </c>
-      <c r="T16" s="21" t="str">
+      <c r="T16" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="17" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="17">
+      <c r="L17" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="8">
         <v>25</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="8">
         <f t="shared" si="2"/>
         <v>2.3229365789919423E-2</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="8">
         <f t="shared" si="3"/>
         <v>2.3505622944934079E-2</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="8">
         <f t="shared" si="4"/>
         <v>105.81883218358287</v>
       </c>
-      <c r="T17" s="21" t="str">
+      <c r="T17" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="18" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="17">
+      <c r="L18" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="8">
         <v>25</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="8">
         <v>2.4</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="8">
         <f t="shared" si="2"/>
         <v>2.3229365789919423E-2</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="8">
         <f t="shared" si="3"/>
         <v>2.3505622944934079E-2</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="8">
         <f t="shared" si="4"/>
         <v>105.81883218358287</v>
       </c>
-      <c r="T18" s="21" t="str">
+      <c r="T18" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="19" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="17">
+      <c r="L19" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="8">
         <v>25</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="8">
         <f t="shared" si="2"/>
         <v>2.226147554867278E-2</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="8">
         <f t="shared" si="3"/>
         <v>2.2514936736803937E-2</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="8">
         <f t="shared" si="4"/>
         <v>101.3589096429081</v>
       </c>
-      <c r="T19" s="21" t="str">
+      <c r="T19" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="20" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="17">
+      <c r="L20" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="8">
         <v>25</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="8">
         <f t="shared" si="2"/>
         <v>2.7100926754905993E-2</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="8">
         <f t="shared" si="3"/>
         <v>2.7478459626632201E-2</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="8">
         <f t="shared" si="4"/>
         <v>123.70395435619052</v>
       </c>
-      <c r="T20" s="21" t="str">
+      <c r="T20" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="21" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="17">
+      <c r="L21" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="8">
         <v>25</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="8">
         <v>0.8</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="8">
         <f t="shared" si="2"/>
         <v>7.7431219299731414E-3</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="8">
         <f t="shared" si="3"/>
         <v>7.7733342929884319E-3</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="8">
         <f t="shared" si="4"/>
         <v>34.994399381953478</v>
       </c>
-      <c r="T21" s="21" t="str">
+      <c r="T21" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="22" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="17">
+      <c r="L22" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="8">
         <v>25</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="8">
         <f t="shared" si="2"/>
         <v>3.9683499891112341E-2</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="8">
         <f t="shared" si="3"/>
         <v>4.0503777903333704E-2</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="8">
         <f t="shared" si="4"/>
         <v>182.34200756111898</v>
       </c>
-      <c r="T22" s="21" t="str">
+      <c r="T22" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="23" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="17">
+      <c r="L23" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="8">
         <v>25</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="8">
         <f t="shared" si="2"/>
         <v>1.9357804824932854E-3</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="8">
         <f t="shared" si="3"/>
         <v>1.9376577412544282E-3</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="8">
         <f t="shared" si="4"/>
         <v>8.7230480907213241</v>
       </c>
-      <c r="T23" s="21" t="str">
+      <c r="T23" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="24" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="17">
+      <c r="L24" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="8">
         <v>25</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="8">
         <v>5.8</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="8">
         <f t="shared" si="2"/>
         <v>5.6137633992305272E-2</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="8">
         <f t="shared" si="3"/>
         <v>5.7808548109573699E-2</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="8">
         <f t="shared" si="4"/>
         <v>260.24551935995123</v>
       </c>
-      <c r="T24" s="21" t="str">
+      <c r="T24" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>#8@180   279mm</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="25" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="8">
         <v>25</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="8">
         <v>-5.7</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="8">
         <f t="shared" si="2"/>
         <v>5.5169743751058632E-2</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="8">
         <f t="shared" si="3"/>
         <v>5.6781831972113284E-2</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="8">
         <f t="shared" si="4"/>
         <v>255.6233954151989</v>
       </c>
-      <c r="T25" s="21" t="str">
+      <c r="T25" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>#8@180   279mm</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="26" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="9" t="str">
         <f>IF(CODE(L25)&lt;CODE("A"), L25+1, CHAR(CODE(L25) + 1))</f>
         <v>B</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="8">
         <v>25</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="8">
         <v>-7</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="8">
         <f t="shared" si="2"/>
         <v>6.7752316887264991E-2</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="8">
         <f t="shared" si="3"/>
         <v>7.021757049002586E-2</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="8">
         <f t="shared" si="4"/>
         <v>316.10909974306094</v>
       </c>
-      <c r="T26" s="21" t="str">
+      <c r="T26" s="11" t="str">
         <f t="shared" si="5"/>
         <v>#8@140   359mm</v>
       </c>
     </row>
     <row r="27" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="9" t="str">
         <f t="shared" ref="L27:L40" si="7">IF(CODE(L26)&lt;CODE("A"), L26+1, CHAR(CODE(L26) + 1))</f>
         <v>C</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="8">
         <v>25</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="8">
         <v>-4.7</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="8">
         <f t="shared" si="2"/>
         <v>4.5490841338592207E-2</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="8">
         <f t="shared" si="3"/>
         <v>4.6575478958708727E-2</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="8">
         <f t="shared" si="4"/>
         <v>209.67590620114984</v>
       </c>
-      <c r="T27" s="21" t="str">
+      <c r="T27" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="28" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="9" t="str">
         <f t="shared" si="7"/>
         <v>D</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="8">
         <v>25</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="8">
         <v>-5.7</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="8">
         <f t="shared" si="2"/>
         <v>5.5169743751058632E-2</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="8">
         <f t="shared" si="3"/>
         <v>5.6781831972113284E-2</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S28" s="8">
         <f t="shared" si="4"/>
         <v>255.6233954151989</v>
       </c>
-      <c r="T28" s="21" t="str">
+      <c r="T28" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>#8@180   279mm</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="29" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="9" t="str">
         <f t="shared" si="7"/>
         <v>E</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="8">
         <v>25</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="8">
         <f t="shared" ref="O29:O40" si="8">M29-N29</f>
         <v>85</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="8">
         <v>-5</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="8">
         <f t="shared" si="2"/>
         <v>4.8394512062332133E-2</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="8">
         <f t="shared" si="3"/>
         <v>4.9625875838711808E-2</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="8">
         <f t="shared" ref="S29:S40" si="9">R29*1*O$8*1000*O29/S$8</f>
         <v>223.40834104427486</v>
       </c>
-      <c r="T29" s="21" t="str">
+      <c r="T29" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="30" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="9" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="8">
         <v>25</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="8">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="8">
         <f t="shared" si="2"/>
         <v>4.452295109734556E-2</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="8">
         <f t="shared" si="3"/>
         <v>4.5560846462536997E-2</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="8">
         <f t="shared" si="9"/>
         <v>205.10818101931008</v>
       </c>
-      <c r="T30" s="21" t="str">
+      <c r="T30" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="31" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="9" t="str">
         <f t="shared" si="7"/>
         <v>G</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="8">
         <v>25</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="8">
         <v>-4.8</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="8">
         <f t="shared" si="2"/>
         <v>4.6458731579838847E-2</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="8">
         <f t="shared" si="3"/>
         <v>4.7591192375709745E-2</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="8">
         <f t="shared" si="9"/>
         <v>214.24849752842667</v>
       </c>
-      <c r="T31" s="21" t="str">
+      <c r="T31" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="32" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="17" t="str">
+      <c r="L32" s="9" t="str">
         <f t="shared" si="7"/>
         <v>H</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="8">
         <v>25</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="8">
         <v>-4.8</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="8">
         <f t="shared" si="2"/>
         <v>4.6458731579838847E-2</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="8">
         <f t="shared" si="3"/>
         <v>4.7591192375709745E-2</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="8">
         <f t="shared" si="9"/>
         <v>214.24849752842667</v>
       </c>
-      <c r="T32" s="21" t="str">
+      <c r="T32" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="33" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="17" t="str">
+      <c r="L33" s="9" t="str">
         <f t="shared" si="7"/>
         <v>I</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="8">
         <v>25</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="8">
         <v>-4.8</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="8">
         <f t="shared" si="2"/>
         <v>4.6458731579838847E-2</v>
       </c>
-      <c r="R33" s="15">
+      <c r="R33" s="8">
         <f t="shared" si="3"/>
         <v>4.7591192375709745E-2</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="8">
         <f t="shared" si="9"/>
         <v>214.24849752842667</v>
       </c>
-      <c r="T33" s="21" t="str">
+      <c r="T33" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="34" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="17" t="str">
+      <c r="L34" s="9" t="str">
         <f t="shared" si="7"/>
         <v>J</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="8">
         <v>25</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="8">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="8">
         <f t="shared" si="2"/>
         <v>4.452295109734556E-2</v>
       </c>
-      <c r="R34" s="15">
+      <c r="R34" s="8">
         <f t="shared" si="3"/>
         <v>4.5560846462536997E-2</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="8">
         <f t="shared" si="9"/>
         <v>205.10818101931008</v>
       </c>
-      <c r="T34" s="21" t="str">
+      <c r="T34" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="35" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="17" t="str">
+      <c r="L35" s="9" t="str">
         <f t="shared" si="7"/>
         <v>K</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="8">
         <v>25</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P35" s="15">
+      <c r="P35" s="8">
         <v>-5</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="8">
         <f t="shared" si="2"/>
         <v>4.8394512062332133E-2</v>
       </c>
-      <c r="R35" s="15">
+      <c r="R35" s="8">
         <f t="shared" si="3"/>
         <v>4.9625875838711808E-2</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S35" s="8">
         <f t="shared" si="9"/>
         <v>223.40834104427486</v>
       </c>
-      <c r="T35" s="21" t="str">
+      <c r="T35" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="36" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="17" t="str">
+      <c r="L36" s="9" t="str">
         <f t="shared" si="7"/>
         <v>L</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="8">
         <v>25</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P36" s="15">
+      <c r="P36" s="8">
         <v>-3.6</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="8">
         <f t="shared" si="2"/>
         <v>3.4844048684879135E-2</v>
       </c>
-      <c r="R36" s="15">
+      <c r="R36" s="8">
         <f t="shared" si="3"/>
         <v>3.5473223476796489E-2</v>
       </c>
-      <c r="S36" s="15">
+      <c r="S36" s="8">
         <f t="shared" si="9"/>
         <v>159.69519680017089</v>
       </c>
-      <c r="T36" s="21" t="str">
+      <c r="T36" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="37" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="17" t="str">
+      <c r="L37" s="9" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="8">
         <v>25</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P37" s="15">
+      <c r="P37" s="8">
         <v>-5.2</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="8">
         <f t="shared" si="2"/>
         <v>5.033029254482542E-2</v>
       </c>
-      <c r="R37" s="15">
+      <c r="R37" s="8">
         <f t="shared" si="3"/>
         <v>5.1664924770601361E-2</v>
       </c>
-      <c r="S37" s="15">
+      <c r="S37" s="8">
         <f t="shared" si="9"/>
         <v>232.58783725431837</v>
       </c>
-      <c r="T37" s="21" t="str">
+      <c r="T37" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="38" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="17" t="str">
+      <c r="L38" s="9" t="str">
         <f t="shared" si="7"/>
         <v>N</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="8">
         <v>25</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P38" s="15">
+      <c r="P38" s="8">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="8">
         <f t="shared" si="2"/>
         <v>4.452295109734556E-2</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="8">
         <f t="shared" si="3"/>
         <v>4.5560846462536997E-2</v>
       </c>
-      <c r="S38" s="15">
+      <c r="S38" s="8">
         <f t="shared" si="9"/>
         <v>205.10818101931008</v>
       </c>
-      <c r="T38" s="21" t="str">
+      <c r="T38" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>构造配筋 #8@200</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="39" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="17" t="str">
+      <c r="L39" s="9" t="str">
         <f t="shared" si="7"/>
         <v>O</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="8">
         <v>25</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="8">
         <v>-6.2</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="8">
         <f t="shared" si="2"/>
         <v>6.0009194957291845E-2</v>
       </c>
-      <c r="R39" s="15">
+      <c r="R39" s="8">
         <f t="shared" si="3"/>
         <v>6.1926649943930934E-2</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S39" s="8">
         <f t="shared" si="9"/>
         <v>278.78460372906693</v>
       </c>
-      <c r="T39" s="21" t="str">
+      <c r="T39" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>#8@180   279mm</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="40" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="17" t="str">
+      <c r="L40" s="9" t="str">
         <f t="shared" si="7"/>
         <v>P</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="8">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="8">
         <v>25</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="8">
         <v>-6.2</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="8">
         <f t="shared" si="2"/>
         <v>6.0009194957291845E-2</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="8">
         <f t="shared" si="3"/>
         <v>6.1926649943930934E-2</v>
       </c>
-      <c r="S40" s="15">
+      <c r="S40" s="8">
         <f t="shared" si="9"/>
         <v>278.78460372906693</v>
       </c>
-      <c r="T40" s="21" t="str">
+      <c r="T40" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>#8@180   279mm</v>
+        <v>构造配筋 #8@180</v>
       </c>
     </row>
     <row r="41" spans="12:20" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="12:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="16"/>
+    </row>
+    <row r="46" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15">
+        <v>8</v>
+      </c>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="17">
+        <f>FLOOR((O46/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T46" s="18"/>
+    </row>
+    <row r="47" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20">
+        <v>270</v>
+      </c>
+      <c r="T47" s="21"/>
+    </row>
+    <row r="48" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" s="8">
+        <v>110</v>
+      </c>
+      <c r="N49" s="8">
+        <v>20</v>
+      </c>
+      <c r="O49" s="8">
+        <f>M49-N49</f>
+        <v>90</v>
+      </c>
+      <c r="P49" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>(ABS(P49)*10^6/(1*O$8*1000*O49^2))</f>
+        <v>5.1800051800051802E-2</v>
+      </c>
+      <c r="R49" s="8">
+        <f>1 - SQRT(1-2*Q49)</f>
+        <v>5.321602442801332E-2</v>
+      </c>
+      <c r="S49" s="8">
+        <f>R49*1*O$8*1000*O49/S$8</f>
+        <v>253.66304977353019</v>
+      </c>
+      <c r="T49" s="11" t="str">
+        <f>IF(S$7&gt;S49, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S49, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S49, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="50" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="9">
+        <f t="shared" ref="L50:L64" si="10">IF(CODE(L49)&lt;CODE("A"), L49+1, CHAR(CODE(L49) + 1))</f>
+        <v>2</v>
+      </c>
+      <c r="M50" s="8">
+        <f>M49</f>
+        <v>110</v>
+      </c>
+      <c r="N50" s="8">
+        <v>20</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" ref="O50:O79" si="11">M50-N50</f>
+        <v>90</v>
+      </c>
+      <c r="P50" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="Q50" s="8">
+        <f t="shared" ref="Q50:Q79" si="12">(ABS(P50)*10^6/(1*O$8*1000*O50^2))</f>
+        <v>2.5036691703358371E-2</v>
+      </c>
+      <c r="R50" s="8">
+        <f t="shared" ref="R50:R79" si="13">1 - SQRT(1-2*Q50)</f>
+        <v>2.5358211139454911E-2</v>
+      </c>
+      <c r="S50" s="8">
+        <f t="shared" ref="S50:S79" si="14">R50*1*O$8*1000*O50/S$8</f>
+        <v>120.87413976473508</v>
+      </c>
+      <c r="T50" s="11" t="str">
+        <f t="shared" ref="T50:T79" si="15">IF(S$7&gt;S50, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S50, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S50, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="9">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" ref="M51:M79" si="16">M50</f>
+        <v>110</v>
+      </c>
+      <c r="N51" s="8">
+        <v>20</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P51" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="Q51" s="8">
+        <f t="shared" si="12"/>
+        <v>3.194336527669861E-2</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" si="13"/>
+        <v>3.2470533034469895E-2</v>
+      </c>
+      <c r="S51" s="8">
+        <f t="shared" si="14"/>
+        <v>154.77620746430651</v>
+      </c>
+      <c r="T51" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="52" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N52" s="8">
+        <v>20</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P52" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" si="12"/>
+        <v>3.021669688336355E-2</v>
+      </c>
+      <c r="R52" s="8">
+        <f t="shared" si="13"/>
+        <v>3.068756005441009E-2</v>
+      </c>
+      <c r="S52" s="8">
+        <f t="shared" si="14"/>
+        <v>146.2773695926881</v>
+      </c>
+      <c r="T52" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="53" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="9">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N53" s="8">
+        <v>20</v>
+      </c>
+      <c r="O53" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P53" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="Q53" s="8">
+        <f t="shared" si="12"/>
+        <v>3.021669688336355E-2</v>
+      </c>
+      <c r="R53" s="8">
+        <f t="shared" si="13"/>
+        <v>3.068756005441009E-2</v>
+      </c>
+      <c r="S53" s="8">
+        <f t="shared" si="14"/>
+        <v>146.2773695926881</v>
+      </c>
+      <c r="T53" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="54" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="9">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M54" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N54" s="8">
+        <v>20</v>
+      </c>
+      <c r="O54" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P54" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="Q54" s="8">
+        <f t="shared" si="12"/>
+        <v>2.935336268669602E-2</v>
+      </c>
+      <c r="R54" s="8">
+        <f t="shared" si="13"/>
+        <v>2.9797302298840256E-2</v>
+      </c>
+      <c r="S54" s="8">
+        <f t="shared" si="14"/>
+        <v>142.0338076244719</v>
+      </c>
+      <c r="T54" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="55" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="9">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N55" s="8">
+        <v>20</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P55" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="8">
+        <f t="shared" si="12"/>
+        <v>3.4533367866701199E-2</v>
+      </c>
+      <c r="R55" s="8">
+        <f t="shared" si="13"/>
+        <v>3.515117025173442E-2</v>
+      </c>
+      <c r="S55" s="8">
+        <f t="shared" si="14"/>
+        <v>167.55391153326741</v>
+      </c>
+      <c r="T55" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="56" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="9">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M56" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N56" s="8">
+        <v>20</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Q56" s="8">
+        <f t="shared" si="12"/>
+        <v>1.2950012950012951E-2</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" si="13"/>
+        <v>1.3034968147313752E-2</v>
+      </c>
+      <c r="S56" s="8">
+        <f t="shared" si="14"/>
+        <v>62.13334816886222</v>
+      </c>
+      <c r="T56" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="57" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="9">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M57" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N57" s="8">
+        <v>20</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P57" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" si="12"/>
+        <v>4.8346715013381683E-2</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" si="13"/>
+        <v>4.9575584292345432E-2</v>
+      </c>
+      <c r="S57" s="8">
+        <f t="shared" si="14"/>
+        <v>236.31028512684657</v>
+      </c>
+      <c r="T57" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="58" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="9">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M58" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N58" s="8">
+        <v>20</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Q58" s="8">
+        <f t="shared" si="12"/>
+        <v>6.9066735733402402E-3</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="13"/>
+        <v>6.9306908108983656E-3</v>
+      </c>
+      <c r="S58" s="8">
+        <f t="shared" si="14"/>
+        <v>33.036292865282206</v>
+      </c>
+      <c r="T58" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="59" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="9">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M59" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N59" s="8">
+        <v>20</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P59" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="Q59" s="8">
+        <f t="shared" si="12"/>
+        <v>6.7340067340067339E-2</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="13"/>
+        <v>6.9774293346036798E-2</v>
+      </c>
+      <c r="S59" s="8">
+        <f t="shared" si="14"/>
+        <v>332.59079828277544</v>
+      </c>
+      <c r="T59" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="60" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N60" s="8">
+        <v>20</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P60" s="8">
+        <v>-6.2</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" si="12"/>
+        <v>5.3526720193386862E-2</v>
+      </c>
+      <c r="R60" s="8">
+        <f t="shared" si="13"/>
+        <v>5.5041503761553479E-2</v>
+      </c>
+      <c r="S60" s="8">
+        <f t="shared" si="14"/>
+        <v>262.36450126340492</v>
+      </c>
+      <c r="T60" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="61" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N61" s="8">
+        <v>20</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P61" s="8">
+        <v>-8</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="12"/>
+        <v>6.9066735733402398E-2</v>
+      </c>
+      <c r="R61" s="8">
+        <f t="shared" si="13"/>
+        <v>7.1632331167658991E-2</v>
+      </c>
+      <c r="S61" s="8">
+        <f t="shared" si="14"/>
+        <v>341.4474452325079</v>
+      </c>
+      <c r="T61" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="62" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="M62" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N62" s="8">
+        <v>20</v>
+      </c>
+      <c r="O62" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P62" s="8">
+        <v>-6.1</v>
+      </c>
+      <c r="Q62" s="8">
+        <f t="shared" si="12"/>
+        <v>5.2663385996719332E-2</v>
+      </c>
+      <c r="R62" s="8">
+        <f t="shared" si="13"/>
+        <v>5.4128323710577853E-2</v>
+      </c>
+      <c r="S62" s="8">
+        <f t="shared" si="14"/>
+        <v>258.01167635375441</v>
+      </c>
+      <c r="T62" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="63" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N63" s="8">
+        <v>20</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P63" s="8">
+        <v>-6.7</v>
+      </c>
+      <c r="Q63" s="8">
+        <f t="shared" si="12"/>
+        <v>5.7843391176724511E-2</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="13"/>
+        <v>5.9620705435008525E-2</v>
+      </c>
+      <c r="S63" s="8">
+        <f t="shared" si="14"/>
+        <v>284.19202924020732</v>
+      </c>
+      <c r="T63" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="64" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N64" s="8">
+        <v>20</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P64" s="8">
+        <v>-6.5</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" si="12"/>
+        <v>5.6116722783389451E-2</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="13"/>
+        <v>5.7786354146141083E-2</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="14"/>
+        <v>275.44828809660589</v>
+      </c>
+      <c r="T64" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="65" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="9" t="str">
+        <f>IF(CODE(L64)&lt;CODE("A"), L64+1, CHAR(CODE(L64) + 1))</f>
+        <v>F</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N65" s="8">
+        <v>20</v>
+      </c>
+      <c r="O65" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P65" s="8">
+        <v>-6.4</v>
+      </c>
+      <c r="Q65" s="8">
+        <f t="shared" si="12"/>
+        <v>5.5253388586721922E-2</v>
+      </c>
+      <c r="R65" s="8">
+        <f t="shared" si="13"/>
+        <v>5.6870516404796012E-2</v>
+      </c>
+      <c r="S65" s="8">
+        <f t="shared" si="14"/>
+        <v>271.08279486286102</v>
+      </c>
+      <c r="T65" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="66" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="9" t="str">
+        <f t="shared" ref="L66:L79" si="17">IF(CODE(L65)&lt;CODE("A"), L65+1, CHAR(CODE(L65) + 1))</f>
+        <v>G</v>
+      </c>
+      <c r="M66" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N66" s="8">
+        <v>20</v>
+      </c>
+      <c r="O66" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P66" s="8">
+        <v>-6.8</v>
+      </c>
+      <c r="Q66" s="8">
+        <f t="shared" si="12"/>
+        <v>5.8706725373392041E-2</v>
+      </c>
+      <c r="R66" s="8">
+        <f t="shared" si="13"/>
+        <v>6.0539224207196707E-2</v>
+      </c>
+      <c r="S66" s="8">
+        <f t="shared" si="14"/>
+        <v>288.57030205430431</v>
+      </c>
+      <c r="T66" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="67" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>H</v>
+      </c>
+      <c r="M67" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N67" s="8">
+        <v>20</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P67" s="8">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="Q67" s="8">
+        <f t="shared" si="12"/>
+        <v>4.4030044030044027E-2</v>
+      </c>
+      <c r="R67" s="8">
+        <f t="shared" si="13"/>
+        <v>4.504454976165928E-2</v>
+      </c>
+      <c r="S67" s="8">
+        <f t="shared" si="14"/>
+        <v>214.71235386390927</v>
+      </c>
+      <c r="T67" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="68" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>I</v>
+      </c>
+      <c r="M68" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N68" s="8">
+        <v>20</v>
+      </c>
+      <c r="O68" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P68" s="8">
+        <v>-7.1</v>
+      </c>
+      <c r="Q68" s="8">
+        <f t="shared" si="12"/>
+        <v>6.129672796339463E-2</v>
+      </c>
+      <c r="R68" s="8">
+        <f t="shared" si="13"/>
+        <v>6.3300184651875369E-2</v>
+      </c>
+      <c r="S68" s="8">
+        <f t="shared" si="14"/>
+        <v>301.73088017393923</v>
+      </c>
+      <c r="T68" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="69" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>J</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N69" s="8">
+        <v>20</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P69" s="8">
+        <v>-6.4</v>
+      </c>
+      <c r="Q69" s="8">
+        <f t="shared" si="12"/>
+        <v>5.5253388586721922E-2</v>
+      </c>
+      <c r="R69" s="8">
+        <f t="shared" si="13"/>
+        <v>5.6870516404796012E-2</v>
+      </c>
+      <c r="S69" s="8">
+        <f t="shared" si="14"/>
+        <v>271.08279486286102</v>
+      </c>
+      <c r="T69" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="70" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>K</v>
+      </c>
+      <c r="M70" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N70" s="8">
+        <v>20</v>
+      </c>
+      <c r="O70" s="8">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="P70" s="8">
+        <v>-8.4</v>
+      </c>
+      <c r="Q70" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2520072520072518E-2</v>
+      </c>
+      <c r="R70" s="8">
+        <f t="shared" si="13"/>
+        <v>7.5359607761019909E-2</v>
+      </c>
+      <c r="S70" s="8">
+        <f t="shared" si="14"/>
+        <v>359.21413032752821</v>
+      </c>
+      <c r="T70" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>#8@120   418mm</v>
+      </c>
+    </row>
+    <row r="71" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>L</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="N71" s="8">
+        <v>20</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" ref="O71" si="18">M71-N71</f>
+        <v>90</v>
+      </c>
+      <c r="P71" s="8">
+        <v>-8.4</v>
+      </c>
+      <c r="Q71" s="8">
+        <f t="shared" ref="Q71" si="19">(ABS(P71)*10^6/(1*O$8*1000*O71^2))</f>
+        <v>7.2520072520072518E-2</v>
+      </c>
+      <c r="R71" s="8">
+        <f t="shared" ref="R71" si="20">1 - SQRT(1-2*Q71)</f>
+        <v>7.5359607761019909E-2</v>
+      </c>
+      <c r="S71" s="8">
+        <f t="shared" ref="S71" si="21">R71*1*O$8*1000*O71/S$8</f>
+        <v>359.21413032752821</v>
+      </c>
+      <c r="T71" s="11" t="str">
+        <f t="shared" ref="T71" si="22">IF(S$7&gt;S71, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S71, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S71, 20)),1) &amp; "mm")</f>
+        <v>#8@120   418mm</v>
+      </c>
+    </row>
+    <row r="72" spans="12:20" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="23"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="25"/>
+    </row>
+    <row r="73" spans="12:20" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="23"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="25"/>
+    </row>
+    <row r="74" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="16"/>
+    </row>
+    <row r="75" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
+        <v>8</v>
+      </c>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" s="15"/>
+      <c r="S75" s="17">
+        <f>FLOOR((O75/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T75" s="18"/>
+    </row>
+    <row r="76" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20">
+        <v>270</v>
+      </c>
+      <c r="T76" s="21"/>
+    </row>
+    <row r="77" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T77" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="9">
+        <v>1</v>
+      </c>
+      <c r="M78" s="8">
+        <v>110</v>
+      </c>
+      <c r="N78" s="8">
+        <v>25</v>
+      </c>
+      <c r="O78" s="8">
+        <f>M78-N78</f>
+        <v>85</v>
+      </c>
+      <c r="P78" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="Q78" s="8">
+        <f>(ABS(P78)*10^6/(1*O$8*1000*O78^2))</f>
+        <v>5.3233963268565346E-2</v>
+      </c>
+      <c r="R78" s="8">
+        <f>1 - SQRT(1-2*Q78)</f>
+        <v>5.473174523690405E-2</v>
+      </c>
+      <c r="S78" s="8">
+        <f>R78*1*O$8*1000*O78/S$8</f>
+        <v>246.39420864984029</v>
+      </c>
+      <c r="T78" s="11" t="str">
+        <f>IF(S$7&gt;S78, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S78, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S78, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="79" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="9">
+        <f t="shared" ref="L79:L92" si="23">IF(CODE(L78)&lt;CODE("A"), L78+1, CHAR(CODE(L78) + 1))</f>
+        <v>2</v>
+      </c>
+      <c r="M79" s="8">
+        <f>M78</f>
+        <v>110</v>
+      </c>
+      <c r="N79" s="8">
+        <v>25</v>
+      </c>
+      <c r="O79" s="8">
+        <f t="shared" ref="O79:O108" si="24">M79-N79</f>
+        <v>85</v>
+      </c>
+      <c r="P79" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="8">
+        <f t="shared" ref="Q79:Q108" si="25">(ABS(P79)*10^6/(1*O$8*1000*O79^2))</f>
+        <v>1.9357804824932854E-2</v>
+      </c>
+      <c r="R79" s="8">
+        <f t="shared" ref="R79:R108" si="26">1 - SQRT(1-2*Q79)</f>
+        <v>1.9548884262894917E-2</v>
+      </c>
+      <c r="S79" s="8">
+        <f t="shared" ref="S79:S108" si="27">R79*1*O$8*1000*O79/S$8</f>
+        <v>88.006180820550995</v>
+      </c>
+      <c r="T79" s="11" t="str">
+        <f t="shared" ref="T79:T108" si="28">IF(S$7&gt;S79, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S79, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S79, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="80" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="9">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="M80" s="8">
+        <f t="shared" ref="M80:M108" si="29">M79</f>
+        <v>110</v>
+      </c>
+      <c r="N80" s="8">
+        <v>25</v>
+      </c>
+      <c r="O80" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P80" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="Q80" s="8">
+        <f t="shared" si="25"/>
+        <v>2.4197256031166067E-2</v>
+      </c>
+      <c r="R80" s="8">
+        <f t="shared" si="26"/>
+        <v>2.4497315258605878E-2</v>
+      </c>
+      <c r="S80" s="8">
+        <f t="shared" si="27"/>
+        <v>110.28328406235349</v>
+      </c>
+      <c r="T80" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="9">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="M81" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N81" s="8">
+        <v>25</v>
+      </c>
+      <c r="O81" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P81" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="8">
+        <f t="shared" si="25"/>
+        <v>4.8394512062332133E-2</v>
+      </c>
+      <c r="R81" s="8">
+        <f t="shared" si="26"/>
+        <v>4.9625875838711808E-2</v>
+      </c>
+      <c r="S81" s="8">
+        <f t="shared" si="27"/>
+        <v>223.40834104427486</v>
+      </c>
+      <c r="T81" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N82" s="8">
+        <v>25</v>
+      </c>
+      <c r="O82" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P82" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="Q82" s="8">
+        <f t="shared" si="25"/>
+        <v>5.6137633992305272E-2</v>
+      </c>
+      <c r="R82" s="8">
+        <f t="shared" si="26"/>
+        <v>5.7808548109573699E-2</v>
+      </c>
+      <c r="S82" s="8">
+        <f t="shared" si="27"/>
+        <v>260.24551935995123</v>
+      </c>
+      <c r="T82" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="83" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="M83" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N83" s="8">
+        <v>25</v>
+      </c>
+      <c r="O83" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P83" s="8">
+        <v>-7.1</v>
+      </c>
+      <c r="Q83" s="8">
+        <f t="shared" si="25"/>
+        <v>6.8720207128511623E-2</v>
+      </c>
+      <c r="R83" s="8">
+        <f t="shared" si="26"/>
+        <v>7.125913961806507E-2</v>
+      </c>
+      <c r="S83" s="8">
+        <f t="shared" si="27"/>
+        <v>320.79808965095589</v>
+      </c>
+      <c r="T83" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="84" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>C</v>
+      </c>
+      <c r="M84" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N84" s="8">
+        <v>25</v>
+      </c>
+      <c r="O84" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P84" s="8">
+        <v>-4.3</v>
+      </c>
+      <c r="Q84" s="8">
+        <f t="shared" si="25"/>
+        <v>4.1619280373605634E-2</v>
+      </c>
+      <c r="R84" s="8">
+        <f t="shared" si="26"/>
+        <v>4.2523400153931301E-2</v>
+      </c>
+      <c r="S84" s="8">
+        <f t="shared" si="27"/>
+        <v>191.43404773001296</v>
+      </c>
+      <c r="T84" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="85" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>D</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N85" s="8">
+        <v>25</v>
+      </c>
+      <c r="O85" s="8">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="P85" s="8">
+        <v>-7</v>
+      </c>
+      <c r="Q85" s="8">
+        <f t="shared" si="25"/>
+        <v>6.7752316887264991E-2</v>
+      </c>
+      <c r="R85" s="8">
+        <f t="shared" si="26"/>
+        <v>7.021757049002586E-2</v>
+      </c>
+      <c r="S85" s="8">
+        <f t="shared" si="27"/>
+        <v>316.10909974306094</v>
+      </c>
+      <c r="T85" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="86" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L86" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>E</v>
+      </c>
+      <c r="M86" s="8">
+        <f t="shared" si="29"/>
+        <v>110</v>
+      </c>
+      <c r="N86" s="8">
+        <v>25</v>
+      </c>
+      <c r="O86" s="8">
+        <f t="shared" ref="O86" si="30">M86-N86</f>
+        <v>85</v>
+      </c>
+      <c r="P86" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="Q86" s="8">
+        <f t="shared" ref="Q86" si="31">(ABS(P86)*10^6/(1*O$8*1000*O86^2))</f>
+        <v>5.033029254482542E-2</v>
+      </c>
+      <c r="R86" s="8">
+        <f t="shared" ref="R86" si="32">1 - SQRT(1-2*Q86)</f>
+        <v>5.1664924770601361E-2</v>
+      </c>
+      <c r="S86" s="8">
+        <f t="shared" ref="S86" si="33">R86*1*O$8*1000*O86/S$8</f>
+        <v>232.58783725431837</v>
+      </c>
+      <c r="T86" s="11" t="str">
+        <f t="shared" ref="T86" si="34">IF(S$7&gt;S86, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S86, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S86, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="23"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="25"/>
+    </row>
+    <row r="88" spans="12:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="23"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="25"/>
+    </row>
+    <row r="89" spans="12:20" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="23"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="25"/>
+    </row>
+    <row r="90" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="16"/>
+    </row>
+    <row r="91" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15">
+        <v>8</v>
+      </c>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="15"/>
+      <c r="S91" s="17">
+        <f>FLOOR((O91/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T91" s="18"/>
+    </row>
+    <row r="92" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20">
+        <v>270</v>
+      </c>
+      <c r="T92" s="21"/>
+    </row>
+    <row r="93" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T93" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="9">
+        <v>1</v>
+      </c>
+      <c r="M94" s="8">
+        <v>110</v>
+      </c>
+      <c r="N94" s="8">
+        <v>20</v>
+      </c>
+      <c r="O94" s="8">
+        <f>M94-N94</f>
+        <v>90</v>
+      </c>
+      <c r="P94" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q94" s="8">
+        <f>(ABS(P94)*10^6/(1*O$8*1000*O94^2))</f>
+        <v>4.4030044030044027E-2</v>
+      </c>
+      <c r="R94" s="8">
+        <f>1 - SQRT(1-2*Q94)</f>
+        <v>4.504454976165928E-2</v>
+      </c>
+      <c r="S94" s="8">
+        <f>R94*1*O$8*1000*O94/S$8</f>
+        <v>214.71235386390927</v>
+      </c>
+      <c r="T94" s="11" t="str">
+        <f>IF(S$7&gt;S94, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S94, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S94, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L95" s="9">
+        <f t="shared" ref="L95:L102" si="35">IF(CODE(L94)&lt;CODE("A"), L94+1, CHAR(CODE(L94) + 1))</f>
+        <v>2</v>
+      </c>
+      <c r="M95" s="8">
+        <f>M94</f>
+        <v>110</v>
+      </c>
+      <c r="N95" s="8">
+        <v>20</v>
+      </c>
+      <c r="O95" s="8">
+        <f t="shared" ref="O95:O102" si="36">M95-N95</f>
+        <v>90</v>
+      </c>
+      <c r="P95" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Q95" s="8">
+        <f t="shared" ref="Q95:Q102" si="37">(ABS(P95)*10^6/(1*O$8*1000*O95^2))</f>
+        <v>2.2446689113355778E-2</v>
+      </c>
+      <c r="R95" s="8">
+        <f t="shared" ref="R95:R102" si="38">1 - SQRT(1-2*Q95)</f>
+        <v>2.2704434792990336E-2</v>
+      </c>
+      <c r="S95" s="8">
+        <f t="shared" ref="S95:S102" si="39">R95*1*O$8*1000*O95/S$8</f>
+        <v>108.22447251325394</v>
+      </c>
+      <c r="T95" s="11" t="str">
+        <f t="shared" ref="T95:T102" si="40">IF(S$7&gt;S95, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S95, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S95, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L96" s="9">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="M96" s="8">
+        <f t="shared" ref="M96:M102" si="41">M95</f>
+        <v>110</v>
+      </c>
+      <c r="N96" s="8">
+        <v>20</v>
+      </c>
+      <c r="O96" s="8">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="P96" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="Q96" s="8">
+        <f t="shared" si="37"/>
+        <v>2.5036691703358371E-2</v>
+      </c>
+      <c r="R96" s="8">
+        <f t="shared" si="38"/>
+        <v>2.5358211139454911E-2</v>
+      </c>
+      <c r="S96" s="8">
+        <f t="shared" si="39"/>
+        <v>120.87413976473508</v>
+      </c>
+      <c r="T96" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="97" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="8">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="N97" s="8">
+        <v>20</v>
+      </c>
+      <c r="O97" s="8">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="P97" s="8">
+        <v>-5.6</v>
+      </c>
+      <c r="Q97" s="8">
+        <f t="shared" si="37"/>
+        <v>4.8346715013381683E-2</v>
+      </c>
+      <c r="R97" s="8">
+        <f t="shared" si="38"/>
+        <v>4.9575584292345432E-2</v>
+      </c>
+      <c r="S97" s="8">
+        <f t="shared" si="39"/>
+        <v>236.31028512684657</v>
+      </c>
+      <c r="T97" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="98" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>B</v>
+      </c>
+      <c r="M98" s="8">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="N98" s="8">
+        <v>20</v>
+      </c>
+      <c r="O98" s="8">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="P98" s="8">
+        <v>-6.7</v>
+      </c>
+      <c r="Q98" s="8">
+        <f t="shared" si="37"/>
+        <v>5.7843391176724511E-2</v>
+      </c>
+      <c r="R98" s="8">
+        <f t="shared" si="38"/>
+        <v>5.9620705435008525E-2</v>
+      </c>
+      <c r="S98" s="8">
+        <f t="shared" si="39"/>
+        <v>284.19202924020732</v>
+      </c>
+      <c r="T98" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="99" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L99" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>C</v>
+      </c>
+      <c r="M99" s="8">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="N99" s="8">
+        <v>20</v>
+      </c>
+      <c r="O99" s="8">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="P99" s="8">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="Q99" s="8">
+        <f t="shared" si="37"/>
+        <v>4.4030044030044027E-2</v>
+      </c>
+      <c r="R99" s="8">
+        <f t="shared" si="38"/>
+        <v>4.504454976165928E-2</v>
+      </c>
+      <c r="S99" s="8">
+        <f t="shared" si="39"/>
+        <v>214.71235386390927</v>
+      </c>
+      <c r="T99" s="11" t="str">
+        <f t="shared" si="40"/>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="100" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>D</v>
+      </c>
+      <c r="M100" s="8">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="N100" s="8">
+        <v>20</v>
+      </c>
+      <c r="O100" s="8">
+        <f t="shared" ref="O100" si="42">M100-N100</f>
+        <v>90</v>
+      </c>
+      <c r="P100" s="8">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="Q100" s="8">
+        <f t="shared" ref="Q100" si="43">(ABS(P100)*10^6/(1*O$8*1000*O100^2))</f>
+        <v>4.4030044030044027E-2</v>
+      </c>
+      <c r="R100" s="8">
+        <f t="shared" ref="R100" si="44">1 - SQRT(1-2*Q100)</f>
+        <v>4.504454976165928E-2</v>
+      </c>
+      <c r="S100" s="8">
+        <f t="shared" ref="S100" si="45">R100*1*O$8*1000*O100/S$8</f>
+        <v>214.71235386390927</v>
+      </c>
+      <c r="T100" s="11" t="str">
+        <f t="shared" ref="T100" si="46">IF(S$7&gt;S100, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S100, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S100, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="101" spans="11:22" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="22"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="22"/>
+      <c r="V101" s="22"/>
+    </row>
+    <row r="102" spans="11:22" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="22"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="22"/>
+      <c r="V102" s="22"/>
+    </row>
+    <row r="103" spans="11:22" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K103" s="22"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+    </row>
+    <row r="104" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="16"/>
+    </row>
+    <row r="105" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L105" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15">
+        <v>8</v>
+      </c>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="15"/>
+      <c r="S105" s="17">
+        <f>FLOOR((O105/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T105" s="18"/>
+    </row>
+    <row r="106" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L106" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20">
+        <v>270</v>
+      </c>
+      <c r="T106" s="21"/>
+    </row>
+    <row r="107" spans="11:22" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T107" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="8">
+        <v>110</v>
+      </c>
+      <c r="N108" s="8">
+        <v>20</v>
+      </c>
+      <c r="O108" s="8">
+        <f>M108-N108</f>
+        <v>90</v>
+      </c>
+      <c r="P108" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="Q108" s="8">
+        <f>(ABS(P108)*10^6/(1*O$8*1000*O108^2))</f>
+        <v>2.6763360096693431E-2</v>
+      </c>
+      <c r="R108" s="8">
+        <f>1 - SQRT(1-2*Q108)</f>
+        <v>2.7131416990653801E-2</v>
+      </c>
+      <c r="S108" s="8">
+        <f>R108*1*O$8*1000*O108/S$8</f>
+        <v>129.32642098878313</v>
+      </c>
+      <c r="T108" s="11" t="str">
+        <f>IF(S$7&gt;S108, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S108, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S108, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="109" spans="11:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L109" s="9">
+        <f t="shared" ref="L109:L113" si="47">IF(CODE(L108)&lt;CODE("A"), L108+1, CHAR(CODE(L108) + 1))</f>
+        <v>2</v>
+      </c>
+      <c r="M109" s="8">
+        <f>M108</f>
+        <v>110</v>
+      </c>
+      <c r="N109" s="8">
+        <v>20</v>
+      </c>
+      <c r="O109" s="8">
+        <f t="shared" ref="O109:O113" si="48">M109-N109</f>
+        <v>90</v>
+      </c>
+      <c r="P109" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="Q109" s="8">
+        <f>(ABS(P109)*10^6/(1*O$8*1000*O109^2))</f>
+        <v>5.3526720193386862E-2</v>
+      </c>
+      <c r="R109" s="8">
+        <f t="shared" ref="R109:R113" si="49">1 - SQRT(1-2*Q109)</f>
+        <v>5.5041503761553479E-2</v>
+      </c>
+      <c r="S109" s="8">
+        <f>R109*1*O$8*1000*O109/S$8</f>
+        <v>262.36450126340492</v>
+      </c>
+      <c r="T109" s="11" t="str">
+        <f>IF(S$7&gt;S109, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S109, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S109, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="110" spans="11:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L110" s="9">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="M110" s="8">
+        <f t="shared" ref="M110:M113" si="50">M109</f>
+        <v>110</v>
+      </c>
+      <c r="N110" s="8">
+        <v>20</v>
+      </c>
+      <c r="O110" s="8">
+        <f t="shared" si="48"/>
+        <v>90</v>
+      </c>
+      <c r="P110" s="8">
+        <v>-3.8</v>
+      </c>
+      <c r="Q110" s="8">
+        <f>(ABS(P110)*10^6/(1*O$8*1000*O110^2))</f>
+        <v>3.280669947336614E-2</v>
+      </c>
+      <c r="R110" s="8">
+        <f t="shared" si="49"/>
+        <v>3.3363252791790532E-2</v>
+      </c>
+      <c r="S110" s="8">
+        <f>R110*1*O$8*1000*O110/S$8</f>
+        <v>159.03150497420154</v>
+      </c>
+      <c r="T110" s="11" t="str">
+        <f>IF(S$7&gt;S110, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S110, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S110, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="111" spans="11:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="9">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="M111" s="8">
+        <f t="shared" si="50"/>
+        <v>110</v>
+      </c>
+      <c r="N111" s="8">
+        <v>20</v>
+      </c>
+      <c r="O111" s="8">
+        <f t="shared" si="48"/>
+        <v>90</v>
+      </c>
+      <c r="P111" s="8">
+        <v>-8.1</v>
+      </c>
+      <c r="Q111" s="8">
+        <f>(ABS(P111)*10^6/(1*O$8*1000*O111^2))</f>
+        <v>6.9930069930069935E-2</v>
+      </c>
+      <c r="R111" s="8">
+        <f t="shared" si="49"/>
+        <v>7.2562745982317045E-2</v>
+      </c>
+      <c r="S111" s="8">
+        <f>R111*1*O$8*1000*O111/S$8</f>
+        <v>345.88242251571131</v>
+      </c>
+      <c r="T111" s="11" t="str">
+        <f>IF(S$7&gt;S111, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S111, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S111, 20)),1) &amp; "mm")</f>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="112" spans="11:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="9">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="M112" s="8">
+        <f t="shared" si="50"/>
+        <v>110</v>
+      </c>
+      <c r="N112" s="8">
+        <v>20</v>
+      </c>
+      <c r="O112" s="8">
+        <f t="shared" ref="O112" si="51">M112-N112</f>
+        <v>90</v>
+      </c>
+      <c r="P112" s="8">
+        <v>-7.1</v>
+      </c>
+      <c r="Q112" s="8">
+        <f>(ABS(P112)*10^6/(1*O$8*1000*O112^2))</f>
+        <v>6.129672796339463E-2</v>
+      </c>
+      <c r="R112" s="8">
+        <f t="shared" ref="R112" si="52">1 - SQRT(1-2*Q112)</f>
+        <v>6.3300184651875369E-2</v>
+      </c>
+      <c r="S112" s="8">
+        <f>R112*1*O$8*1000*O112/S$8</f>
+        <v>301.73088017393923</v>
+      </c>
+      <c r="T112" s="11" t="str">
+        <f>IF(S$7&gt;S112, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S112, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S112, 20)),1) &amp; "mm")</f>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="113" spans="11:21" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K113" s="22"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="22"/>
+    </row>
+    <row r="114" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
+      <c r="T114" s="22"/>
+      <c r="U114" s="22"/>
+    </row>
+    <row r="115" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+    </row>
+    <row r="116" spans="11:21" x14ac:dyDescent="0.25">
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+    </row>
+    <row r="118" spans="11:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="16"/>
+    </row>
+    <row r="120" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L120" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15">
+        <v>8</v>
+      </c>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R120" s="15"/>
+      <c r="S120" s="17">
+        <f>FLOOR((O120/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="T120" s="18"/>
+    </row>
+    <row r="121" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20">
+        <v>270</v>
+      </c>
+      <c r="T121" s="21"/>
+    </row>
+    <row r="122" spans="11:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T122" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L123" s="9">
+        <v>1</v>
+      </c>
+      <c r="M123" s="8">
+        <v>110</v>
+      </c>
+      <c r="N123" s="8">
+        <v>20</v>
+      </c>
+      <c r="O123" s="8">
+        <f>M123-N123</f>
+        <v>90</v>
+      </c>
+      <c r="P123" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q123" s="8">
+        <f>(ABS(P123)*10^6/(1*O$8*1000*O123^2))</f>
+        <v>1.381334714668048E-2</v>
+      </c>
+      <c r="R123" s="8">
+        <f>1 - SQRT(1-2*Q123)</f>
+        <v>1.3910092483125025E-2</v>
+      </c>
+      <c r="S123" s="8">
+        <f>R123*1*O$8*1000*O123/S$8</f>
+        <v>66.30477416956262</v>
+      </c>
+      <c r="T123" s="11" t="str">
+        <f>IF(S$7&gt;S123, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S123, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S123, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="124" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L124" s="9">
+        <f t="shared" ref="L124:L131" si="53">IF(CODE(L123)&lt;CODE("A"), L123+1, CHAR(CODE(L123) + 1))</f>
+        <v>2</v>
+      </c>
+      <c r="M124" s="8">
+        <f>M123</f>
+        <v>110</v>
+      </c>
+      <c r="N124" s="8">
+        <v>20</v>
+      </c>
+      <c r="O124" s="8">
+        <f t="shared" ref="O124:O129" si="54">M124-N124</f>
+        <v>90</v>
+      </c>
+      <c r="P124" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q124" s="8">
+        <f>(ABS(P124)*10^6/(1*O$8*1000*O124^2))</f>
+        <v>3.9713373046706378E-2</v>
+      </c>
+      <c r="R124" s="8">
+        <f t="shared" ref="R124:R129" si="55">1 - SQRT(1-2*Q124)</f>
+        <v>4.0534912617146146E-2</v>
+      </c>
+      <c r="S124" s="8">
+        <f>R124*1*O$8*1000*O124/S$8</f>
+        <v>193.21641680839662</v>
+      </c>
+      <c r="T124" s="11" t="str">
+        <f>IF(S$7&gt;S124, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S124, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S124, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="125" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="9">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="M125" s="8">
+        <f t="shared" ref="M125:M131" si="56">M124</f>
+        <v>110</v>
+      </c>
+      <c r="N125" s="8">
+        <v>20</v>
+      </c>
+      <c r="O125" s="8">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="P125" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="8">
+        <f>(ABS(P125)*10^6/(1*O$8*1000*O125^2))</f>
+        <v>8.6333419666752998E-3</v>
+      </c>
+      <c r="R125" s="8">
+        <f t="shared" si="55"/>
+        <v>8.670934519395157E-3</v>
+      </c>
+      <c r="S125" s="8">
+        <f>R125*1*O$8*1000*O125/S$8</f>
+        <v>41.331454542450246</v>
+      </c>
+      <c r="T125" s="11" t="str">
+        <f>IF(S$7&gt;S125, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S125, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S125, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="126" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L126" s="9">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="M126" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N126" s="8">
+        <v>20</v>
+      </c>
+      <c r="O126" s="8">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="P126" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="Q126" s="8">
+        <f>(ABS(P126)*10^6/(1*O$8*1000*O126^2))</f>
+        <v>5.6980056980056981E-2</v>
+      </c>
+      <c r="R126" s="8">
+        <f t="shared" si="55"/>
+        <v>5.8703082954222108E-2</v>
+      </c>
+      <c r="S126" s="8">
+        <f>R126*1*O$8*1000*O126/S$8</f>
+        <v>279.81802874845874</v>
+      </c>
+      <c r="T126" s="11" t="str">
+        <f>IF(S$7&gt;S126, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S126, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S126, 20)),1) &amp; "mm")</f>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="127" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L127" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N127" s="8">
+        <v>20</v>
+      </c>
+      <c r="O127" s="8">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="P127" s="8">
+        <v>-3.2</v>
+      </c>
+      <c r="Q127" s="8">
+        <f>(ABS(P127)*10^6/(1*O$8*1000*O127^2))</f>
+        <v>2.7626694293360961E-2</v>
+      </c>
+      <c r="R127" s="8">
+        <f t="shared" si="55"/>
+        <v>2.8019233002381849E-2</v>
+      </c>
+      <c r="S127" s="8">
+        <f>R127*1*O$8*1000*O127/S$8</f>
+        <v>133.55834397802013</v>
+      </c>
+      <c r="T127" s="11" t="str">
+        <f>IF(S$7&gt;S127, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S127, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S127, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="128" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L128" s="9" t="str">
+        <f t="shared" si="53"/>
+        <v>B</v>
+      </c>
+      <c r="M128" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N128" s="8">
+        <v>20</v>
+      </c>
+      <c r="O128" s="8">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="P128" s="8">
+        <v>-6.3</v>
+      </c>
+      <c r="Q128" s="8">
+        <f>(ABS(P128)*10^6/(1*O$8*1000*O128^2))</f>
+        <v>5.4390054390054392E-2</v>
+      </c>
+      <c r="R128" s="8">
+        <f t="shared" si="55"/>
+        <v>5.595556713685812E-2</v>
+      </c>
+      <c r="S128" s="8">
+        <f>R128*1*O$8*1000*O128/S$8</f>
+        <v>266.72153668569035</v>
+      </c>
+      <c r="T128" s="11" t="str">
+        <f>IF(S$7&gt;S128, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S128, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S128, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="129" spans="12:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="9" t="str">
+        <f t="shared" si="53"/>
+        <v>C</v>
+      </c>
+      <c r="M129" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N129" s="8">
+        <v>20</v>
+      </c>
+      <c r="O129" s="8">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="P129" s="8">
+        <v>-5.4</v>
+      </c>
+      <c r="Q129" s="8">
+        <f>(ABS(P129)*10^6/(1*O$8*1000*O129^2))</f>
+        <v>4.6620046620046623E-2</v>
+      </c>
+      <c r="R129" s="8">
+        <f t="shared" si="55"/>
+        <v>4.7760583277552615E-2</v>
+      </c>
+      <c r="S129" s="8">
+        <f>R129*1*O$8*1000*O129/S$8</f>
+        <v>227.65878028966745</v>
+      </c>
+      <c r="T129" s="11" t="str">
+        <f>IF(S$7&gt;S129, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S129, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S129, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="130" spans="12:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="9" t="str">
+        <f t="shared" si="53"/>
+        <v>D</v>
+      </c>
+      <c r="M130" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N130" s="8">
+        <v>20</v>
+      </c>
+      <c r="O130" s="8">
+        <f t="shared" ref="O130:O131" si="57">M130-N130</f>
+        <v>90</v>
+      </c>
+      <c r="P130" s="8">
+        <v>-7.2</v>
+      </c>
+      <c r="Q130" s="8">
+        <f>(ABS(P130)*10^6/(1*O$8*1000*O130^2))</f>
+        <v>6.216006216006216E-2</v>
+      </c>
+      <c r="R130" s="8">
+        <f t="shared" ref="R130:R131" si="58">1 - SQRT(1-2*Q130)</f>
+        <v>6.4222315034240807E-2</v>
+      </c>
+      <c r="S130" s="8">
+        <f>R130*1*O$8*1000*O130/S$8</f>
+        <v>306.12636832988119</v>
+      </c>
+      <c r="T130" s="11" t="str">
+        <f>IF(S$7&gt;S130, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S130, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S130, 20)),1) &amp; "mm")</f>
+        <v>#8@160   314mm</v>
+      </c>
+    </row>
+    <row r="131" spans="12:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="9" t="str">
+        <f t="shared" si="53"/>
+        <v>E</v>
+      </c>
+      <c r="M131" s="8">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="N131" s="8">
+        <v>20</v>
+      </c>
+      <c r="O131" s="8">
+        <f t="shared" si="57"/>
+        <v>90</v>
+      </c>
+      <c r="P131" s="8">
+        <v>-7.5</v>
+      </c>
+      <c r="Q131" s="8">
+        <f>(ABS(P131)*10^6/(1*O$8*1000*O131^2))</f>
+        <v>6.4750064750064756E-2</v>
+      </c>
+      <c r="R131" s="8">
+        <f t="shared" si="58"/>
+        <v>6.6994174455555444E-2</v>
+      </c>
+      <c r="S131" s="8">
+        <f>R131*1*O$8*1000*O131/S$8</f>
+        <v>319.33889823814764</v>
+      </c>
+      <c r="T131" s="11" t="str">
+        <f>IF(S$7&gt;S131, "构造配筋 #8@180", "#"&amp;O$7&amp;"@"&amp;FLOOR((O$7/2)^2*PI()*1000/S131, 20) &amp;"   "&amp; FLOOR(((O$7/2)^2*PI()*1000/FLOOR((O$7/2)^2*PI()*1000/S131, 20)),1) &amp; "mm")</f>
+        <v>#8@140   359mm</v>
+      </c>
+    </row>
+    <row r="132" spans="12:20" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="55">
+    <mergeCell ref="L120:N120"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="S120:T120"/>
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="S121:T121"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="L119:T119"/>
+    <mergeCell ref="L104:T104"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="L45:T45"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="Q8:R8"/>
@@ -2225,6 +6872,8 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -2433,6 +7082,1021 @@
         <oleObject progId="Equation.AxMath" shapeId="1118" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1119" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1119" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1120" r:id="rId21">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1120" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1121" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1121" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1122" r:id="rId23">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1122" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1123" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1123" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1124" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1124" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1125" r:id="rId27">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1125" r:id="rId27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1126" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1126" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId29">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1128" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1128" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1129" r:id="rId31">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1129" r:id="rId31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1130" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1130" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1131" r:id="rId33">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1131" r:id="rId33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1132" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1132" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1133" r:id="rId35">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1133" r:id="rId35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1134" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1134" r:id="rId36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId37">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1136" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1136" r:id="rId38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1137" r:id="rId39">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1137" r:id="rId39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1138" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1138" r:id="rId40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId41">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId43">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId45">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId47">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1147" r:id="rId49">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1147" r:id="rId49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId51">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId53">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId55">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1155" r:id="rId57">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1155" r:id="rId57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1157" r:id="rId59">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1157" r:id="rId59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326D1C-2E2E-4858-A25E-29F88CF78E17}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结构设计/板计算/板配筋计算.xlsx
+++ b/结构设计/板计算/板配筋计算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6159C2-8B80-462A-9E75-50956ED73310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EC5DE-7538-4FF7-B8B8-111DD108495D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="492" windowWidth="19848" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="492" windowWidth="19848" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单向板计算" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>截面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,22 @@
     <t>B9 连续板计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>刚接(计算最不利支座弯矩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铰接(计算最不利跨中弯矩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向板计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +108,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +145,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -229,11 +258,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +370,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +414,65 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,6 +3055,3143 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE46C17-AC39-4636-8291-10D9635936B2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2070" name="Object 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BB1657-DD7B-43DF-8681-9F008D8966FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2071" name="Object 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035E9C79-1A89-4433-BB02-26160C4C0BC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2072" name="Object 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C781F9-2B3C-4AF9-9D89-DE8462FCFDD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2073" name="Object 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04D10A2-947A-4DCD-B494-1F4F0821430B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2074" name="Object 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512BE595-6A06-4F6F-AC41-31E8433E2655}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2075" name="Object 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCEAF5E-4426-451E-B2B1-1E061EFE66C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Object 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16959D1-C39A-452B-9948-6547FFB7295E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Object 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF37AA8C-5A0D-43E3-ABF4-1A5B3F953A98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Object 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5747DF-836C-475F-9208-3F7DB2572211}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Object 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A6C13-BA87-440A-B026-DBA32F8F3F73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2082" name="Object 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B610DEE-0575-4EBA-846A-E62B59C491AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Object 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67655B3D-B710-46E9-86DE-D50DB3B06996}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Object 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BDACFE-9FDF-431E-9448-FD1259229254}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2085" name="Object 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F086F6-CDDD-44F6-8C78-7B07962C7A6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Object 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB38E1B-723B-4855-8B5D-C5187C25986E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>388620</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Object 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B548F0-2A40-4968-A68B-95AECCE3094E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Object 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C7FF9A-D65E-4C77-955C-74A2BAA47AE9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2089" name="Object 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1AFC8A-10D4-4247-81C8-9BF5C0279975}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2090" name="Object 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80CF496-C180-4945-988F-917BEFC53E8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Object 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F75CE1F-6EB5-4506-BA73-FA9383AAD60B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2104" name="Object 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA2F348-DDF7-481E-A4DC-63E3F223080A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2105" name="Object 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38C6C8E-2D17-42DD-8C79-60A40A303870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2106" name="Object 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5433802A-659B-4960-B068-6B51587F23A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Object 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAA97FD-9C9C-411B-A2B3-5B2BE7EDBAB5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>693420</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2110" name="Object 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867832FA-EA8C-4E55-898D-142323655517}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2112" name="Object 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9B19E3-4396-409A-980D-C902922EA76F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63CE6B1-D2B8-4BD1-8B51-0B8C7317F1DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2114" name="Object 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E4A1C3-869A-464C-9E94-5BD55AEAFA6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2115" name="Object 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C564AA-9B0C-444E-86EA-6186D80F723E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2116" name="Object 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3142D2-55CC-45B8-A6FB-50F105ACE9A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>236220</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2117" name="Object 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE05CEE-4274-4CE1-8F2C-D627E3C9C26F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>922020</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>434340</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2118" name="Object 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60169103-60CC-4494-8AF1-4C181F8C6C04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Object 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83D5357-FDE7-4769-A0E1-9727A0F497AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>807720</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2120" name="Object 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70117C48-22E5-4746-87B7-B08205D99DDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2121" name="Object 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E69FC1D-0CBE-4C84-867E-96EEC2A217D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>510540</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2122" name="Object 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF90F3D-16D8-4210-9EB5-ABF07E3DD115}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1165860</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2123" name="Object 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B2CE3D-E82A-4D7A-9A0B-400A0A0C81D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2124" name="Object 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D623E42-8036-459F-9CA2-3CAF444A28C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2125" name="Object 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C78BE0A-B290-47B6-AB16-FDE69570F94F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2126" name="Object 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FC5FD5-9E87-4ABE-9434-E1B9A751188E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2127" name="Object 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526DCC82-2849-4A20-9AFB-03623CD68388}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2128" name="Object 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF79CD29-ECFA-4EB7-96C3-D3BD86728B1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2129" name="Object 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BD999D-EBBE-41C2-A949-45018F80C5A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2130" name="Object 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6A82FF-AFE9-4DC0-9EB7-92408253469D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>388620</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2131" name="Object 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3D8B3E-1978-42EF-8628-E6D60F2433F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2132" name="Object 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B825C84C-FFC1-40EC-8100-859AB9AD0147}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2133" name="Object 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC376C7F-D4CA-45B1-AE0E-6EEEA2DE38F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2134" name="Object 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F48C02C-1A14-4804-BB29-5016F73B3BB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2135" name="Object 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1086A6AC-C232-4DC2-846D-7ED1A694EF22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2136" name="Object 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6FB851-2CF1-4705-9F65-E9C490A02305}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2137" name="Object 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B08385-6F12-420E-BBAA-C84B33313AD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2138" name="Object 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2138"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84551208-765E-4EFF-941D-72150DF262F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2139" name="Object 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2139"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77199F1D-F9B0-4A55-A70F-8619A2CEF9C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>693420</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2140" name="Object 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A288439E-7861-4735-89DD-C62152B5F89C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2141" name="Object 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2141"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04675226-987C-4BDC-AB6B-BCFAFA733963}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2142" name="Object 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4352F790-1EE9-4E80-A0DA-ACA69FCE7030}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2143" name="Object 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC28341-D3ED-4D8A-BF4C-916025FDC666}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2144" name="Object 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83313E9-4324-4F1F-86E0-B5FA76899FCB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3188,8 +6493,8 @@
   </sheetPr>
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H115" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="M123" sqref="M123"/>
+    <sheetView topLeftCell="J112" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="V123" sqref="V123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3224,64 +6529,64 @@
     </row>
     <row r="5" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:24" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>8</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="17">
+      <c r="R7" s="16"/>
+      <c r="S7" s="18">
         <f>FLOOR((O7/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="V7" s="12" t="s">
+      <c r="T7" s="19"/>
+      <c r="V7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="13"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="10">
         <f>IF(M$10&gt;150, MIN(250, 1.5*M$10), 200)</f>
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
         <v>14.3</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="20" t="s">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21">
         <v>270</v>
       </c>
-      <c r="T8" s="21"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:24" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="5" t="s">
@@ -4418,56 +7723,56 @@
     <row r="41" spans="12:20" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="12:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="17"/>
     </row>
     <row r="46" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15">
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16">
         <v>8</v>
       </c>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="14" t="s">
+      <c r="P46" s="17"/>
+      <c r="Q46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R46" s="15"/>
-      <c r="S46" s="17">
+      <c r="R46" s="16"/>
+      <c r="S46" s="18">
         <f>FLOOR((O46/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T46" s="18"/>
+      <c r="T46" s="19"/>
     </row>
     <row r="47" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20">
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21">
         <v>14.3</v>
       </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="20" t="s">
+      <c r="P47" s="22"/>
+      <c r="Q47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20">
+      <c r="R47" s="21"/>
+      <c r="S47" s="21">
         <v>270</v>
       </c>
-      <c r="T47" s="21"/>
+      <c r="T47" s="22"/>
     </row>
     <row r="48" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L48" s="5" t="s">
@@ -5314,78 +8619,78 @@
       </c>
     </row>
     <row r="72" spans="12:20" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="25"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="26"/>
     </row>
     <row r="73" spans="12:20" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L73" s="23"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="25"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="26"/>
     </row>
     <row r="74" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L74" s="14" t="s">
+      <c r="L74" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="17"/>
     </row>
     <row r="75" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L75" s="14" t="s">
+      <c r="L75" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16">
         <v>8</v>
       </c>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="14" t="s">
+      <c r="P75" s="17"/>
+      <c r="Q75" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R75" s="15"/>
-      <c r="S75" s="17">
+      <c r="R75" s="16"/>
+      <c r="S75" s="18">
         <f>FLOOR((O75/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T75" s="18"/>
+      <c r="T75" s="19"/>
     </row>
     <row r="76" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20">
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21">
         <v>14.3</v>
       </c>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="20" t="s">
+      <c r="P76" s="22"/>
+      <c r="Q76" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20">
+      <c r="R76" s="21"/>
+      <c r="S76" s="21">
         <v>270</v>
       </c>
-      <c r="T76" s="21"/>
+      <c r="T76" s="22"/>
     </row>
     <row r="77" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L77" s="5" t="s">
@@ -5728,89 +9033,89 @@
       </c>
     </row>
     <row r="87" spans="12:20" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L87" s="23"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="25"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="26"/>
     </row>
     <row r="88" spans="12:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L88" s="23"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="25"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="26"/>
     </row>
     <row r="89" spans="12:20" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L89" s="23"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="25"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="26"/>
     </row>
     <row r="90" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L90" s="14" t="s">
+      <c r="L90" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="17"/>
     </row>
     <row r="91" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L91" s="14" t="s">
+      <c r="L91" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15">
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16">
         <v>8</v>
       </c>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="14" t="s">
+      <c r="P91" s="17"/>
+      <c r="Q91" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="15"/>
-      <c r="S91" s="17">
+      <c r="R91" s="16"/>
+      <c r="S91" s="18">
         <f>FLOOR((O91/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T91" s="18"/>
+      <c r="T91" s="19"/>
     </row>
     <row r="92" spans="12:20" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L92" s="19" t="s">
+      <c r="L92" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20">
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21">
         <v>14.3</v>
       </c>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="20" t="s">
+      <c r="P92" s="22"/>
+      <c r="Q92" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R92" s="20"/>
-      <c r="S92" s="20">
+      <c r="R92" s="21"/>
+      <c r="S92" s="21">
         <v>270</v>
       </c>
-      <c r="T92" s="21"/>
+      <c r="T92" s="22"/>
     </row>
     <row r="93" spans="12:20" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L93" s="5" t="s">
@@ -6081,98 +9386,98 @@
       </c>
     </row>
     <row r="101" spans="11:22" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K101" s="22"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="25"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
     </row>
     <row r="102" spans="11:22" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K102" s="22"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="22"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="26"/>
+      <c r="U102" s="23"/>
+      <c r="V102" s="23"/>
     </row>
     <row r="103" spans="11:22" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K103" s="22"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
-      <c r="T103" s="25"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="23"/>
     </row>
     <row r="104" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L104" s="14" t="s">
+      <c r="L104" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="17"/>
     </row>
     <row r="105" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L105" s="14" t="s">
+      <c r="L105" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15">
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16">
         <v>8</v>
       </c>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="14" t="s">
+      <c r="P105" s="17"/>
+      <c r="Q105" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R105" s="15"/>
-      <c r="S105" s="17">
+      <c r="R105" s="16"/>
+      <c r="S105" s="18">
         <f>FLOOR((O105/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T105" s="18"/>
+      <c r="T105" s="19"/>
     </row>
     <row r="106" spans="11:22" ht="22.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L106" s="19" t="s">
+      <c r="L106" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20">
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21">
         <v>14.3</v>
       </c>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="20" t="s">
+      <c r="P106" s="22"/>
+      <c r="Q106" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20">
+      <c r="R106" s="21"/>
+      <c r="S106" s="21">
         <v>270</v>
       </c>
-      <c r="T106" s="21"/>
+      <c r="T106" s="22"/>
     </row>
     <row r="107" spans="11:22" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L107" s="5" t="s">
@@ -6372,109 +9677,109 @@
       </c>
     </row>
     <row r="113" spans="11:21" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K113" s="22"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
-      <c r="R113" s="24"/>
-      <c r="S113" s="24"/>
-      <c r="T113" s="25"/>
-      <c r="U113" s="22"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
+      <c r="T113" s="26"/>
+      <c r="U113" s="23"/>
     </row>
     <row r="114" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-      <c r="S114" s="22"/>
-      <c r="T114" s="22"/>
-      <c r="U114" s="22"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="23"/>
+      <c r="U114" s="23"/>
     </row>
     <row r="115" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="22"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="23"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="23"/>
+      <c r="U115" s="23"/>
     </row>
     <row r="116" spans="11:21" x14ac:dyDescent="0.25">
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="23"/>
+      <c r="R116" s="23"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="23"/>
+      <c r="U116" s="23"/>
     </row>
     <row r="118" spans="11:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L119" s="14" t="s">
+      <c r="L119" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="T119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="17"/>
     </row>
     <row r="120" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L120" s="14" t="s">
+      <c r="L120" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15">
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16">
         <v>8</v>
       </c>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="14" t="s">
+      <c r="P120" s="17"/>
+      <c r="Q120" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R120" s="15"/>
-      <c r="S120" s="17">
+      <c r="R120" s="16"/>
+      <c r="S120" s="18">
         <f>FLOOR((O120/2)^2*PI()*1000/180,1)</f>
         <v>279</v>
       </c>
-      <c r="T120" s="18"/>
+      <c r="T120" s="19"/>
     </row>
     <row r="121" spans="11:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L121" s="19" t="s">
+      <c r="L121" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M121" s="20"/>
-      <c r="N121" s="20"/>
-      <c r="O121" s="20">
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21">
         <v>14.3</v>
       </c>
-      <c r="P121" s="21"/>
-      <c r="Q121" s="20" t="s">
+      <c r="P121" s="22"/>
+      <c r="Q121" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R121" s="20"/>
-      <c r="S121" s="20">
+      <c r="R121" s="21"/>
+      <c r="S121" s="21">
         <v>270</v>
       </c>
-      <c r="T121" s="21"/>
+      <c r="T121" s="22"/>
     </row>
     <row r="122" spans="11:21" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L122" s="5" t="s">
@@ -8087,16 +11392,2096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326D1C-2E2E-4858-A25E-29F88CF78E17}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326D1C-2E2E-4858-A25E-29F88CF78E17}">
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="3:11" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28">
+        <v>6.55</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="3:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="3:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="3:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="41"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>8</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18">
+        <f>FLOOR((F8/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>14.3</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <v>270</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="3:11" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="36"/>
+      <c r="D11" s="8">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <f>D11-E11</f>
+        <v>80</v>
+      </c>
+      <c r="G11" s="8">
+        <f>MIN(E6:E7)^2*((I4+E3*I5)*E5+(G4+E3*G5)*E4)</f>
+        <v>1.0435814400000001</v>
+      </c>
+      <c r="H11" s="8">
+        <f>(ABS(G11)*10^6/(1*F$9*1000*F11^2))</f>
+        <v>1.1402769230769232E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <f>1 - SQRT(1-2*H11)</f>
+        <v>1.1468532853677105E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <f>I11*1*F$9*1000*F11/J$9</f>
+        <v>48.592598461505958</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>IF(J$8&gt;J11, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J11, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J11, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="8">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <f>D12-E12</f>
+        <v>80</v>
+      </c>
+      <c r="G12" s="8">
+        <f>MIN(E6:E7)^2*((I5+E3*I4)*E5+(G5+E3*G4)*E4)</f>
+        <v>1.0435814400000001</v>
+      </c>
+      <c r="H12" s="8">
+        <f>(ABS(G12)*10^6/(1*F$9*1000*F12^2))</f>
+        <v>1.1402769230769232E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f>1 - SQRT(1-2*H12)</f>
+        <v>1.1468532853677105E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <f>I12*1*F$9*1000*F12/J$9</f>
+        <v>48.592598461505958</v>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f>IF(J$8&gt;J12, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J12, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J12, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="8">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <f>D13-E13</f>
+        <v>80</v>
+      </c>
+      <c r="G13" s="8">
+        <f>MIN(E6:E7)^2*((G6)*SUM(E4:E5))</f>
+        <v>-2.0608236000000004</v>
+      </c>
+      <c r="H13" s="8">
+        <f>(ABS(G13)*10^6/(1*F$9*1000*F13^2))</f>
+        <v>2.251774038461539E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <f>1 - SQRT(1-2*H13)</f>
+        <v>2.2777139424803861E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <f>I13*1*F$9*1000*F13/J$9</f>
+        <v>96.507583340650427</v>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f>IF(J$8&gt;J13, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J13, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J13, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="38"/>
+      <c r="D14" s="8">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <f>D14-E14</f>
+        <v>80</v>
+      </c>
+      <c r="G14" s="8">
+        <f>MIN(E6:E7)^2*((G7)*SUM(E4:E5))</f>
+        <v>-2.0608236000000004</v>
+      </c>
+      <c r="H14" s="8">
+        <f>(ABS(G14)*10^6/(1*F$9*1000*F14^2))</f>
+        <v>2.251774038461539E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f>1 - SQRT(1-2*H14)</f>
+        <v>2.2777139424803861E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f>I14*1*F$9*1000*F14/J$9</f>
+        <v>96.507583340650427</v>
+      </c>
+      <c r="K14" s="11" t="str">
+        <f>IF(J$8&gt;J14, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J14, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J14, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="40"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="28">
+        <v>6.55</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="J29" s="44"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="40"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="G30" s="28">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I30" s="28">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="J30" s="44"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="40"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G31" s="28">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="41"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="49"/>
+    </row>
+    <row r="33" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16">
+        <v>8</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="18">
+        <f>FLOOR((F33/2)^2*PI()*1000/180,1)</f>
+        <v>279</v>
+      </c>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21">
+        <v>14.3</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21">
+        <v>270</v>
+      </c>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="3:11" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="36"/>
+      <c r="D36" s="8">
+        <v>100</v>
+      </c>
+      <c r="E36" s="8">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8">
+        <f>D36-E36</f>
+        <v>80</v>
+      </c>
+      <c r="G36" s="8">
+        <f>MIN(E31:E32)^2*((I29+E28*I30)*E30+(G29+E28*G30)*E29)</f>
+        <v>1.0435814400000001</v>
+      </c>
+      <c r="H36" s="8">
+        <f>(ABS(G36)*10^6/(1*F$9*1000*F36^2))</f>
+        <v>1.1402769230769232E-2</v>
+      </c>
+      <c r="I36" s="8">
+        <f>1 - SQRT(1-2*H36)</f>
+        <v>1.1468532853677105E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <f>I36*1*F$9*1000*F36/J$9</f>
+        <v>48.592598461505958</v>
+      </c>
+      <c r="K36" s="11" t="str">
+        <f>IF(J$8&gt;J36, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J36, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J36, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="37"/>
+      <c r="D37" s="8">
+        <v>100</v>
+      </c>
+      <c r="E37" s="8">
+        <v>20</v>
+      </c>
+      <c r="F37" s="8">
+        <f>D37-E37</f>
+        <v>80</v>
+      </c>
+      <c r="G37" s="8">
+        <f>MIN(E31:E32)^2*((I30+E28*I29)*E30+(G30+E28*G29)*E29)</f>
+        <v>1.0435814400000001</v>
+      </c>
+      <c r="H37" s="8">
+        <f>(ABS(G37)*10^6/(1*F$9*1000*F37^2))</f>
+        <v>1.1402769230769232E-2</v>
+      </c>
+      <c r="I37" s="8">
+        <f>1 - SQRT(1-2*H37)</f>
+        <v>1.1468532853677105E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <f>I37*1*F$9*1000*F37/J$9</f>
+        <v>48.592598461505958</v>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f>IF(J$8&gt;J37, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J37, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J37, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="37"/>
+      <c r="D38" s="8">
+        <v>100</v>
+      </c>
+      <c r="E38" s="8">
+        <v>20</v>
+      </c>
+      <c r="F38" s="8">
+        <f>D38-E38</f>
+        <v>80</v>
+      </c>
+      <c r="G38" s="8">
+        <f>MIN(E31:E32)^2*((G31)*SUM(E29:E30))</f>
+        <v>-2.0608236000000004</v>
+      </c>
+      <c r="H38" s="8">
+        <f>(ABS(G38)*10^6/(1*F$9*1000*F38^2))</f>
+        <v>2.251774038461539E-2</v>
+      </c>
+      <c r="I38" s="8">
+        <f>1 - SQRT(1-2*H38)</f>
+        <v>2.2777139424803861E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <f>I38*1*F$9*1000*F38/J$9</f>
+        <v>96.507583340650427</v>
+      </c>
+      <c r="K38" s="11" t="str">
+        <f>IF(J$8&gt;J38, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J38, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J38, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="38"/>
+      <c r="D39" s="8">
+        <v>100</v>
+      </c>
+      <c r="E39" s="8">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8">
+        <f>D39-E39</f>
+        <v>80</v>
+      </c>
+      <c r="G39" s="8">
+        <f>MIN(E31:E32)^2*((G32)*SUM(E29:E30))</f>
+        <v>-2.0608236000000004</v>
+      </c>
+      <c r="H39" s="8">
+        <f>(ABS(G39)*10^6/(1*F$9*1000*F39^2))</f>
+        <v>2.251774038461539E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <f>1 - SQRT(1-2*H39)</f>
+        <v>2.2777139424803861E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <f>I39*1*F$9*1000*F39/J$9</f>
+        <v>96.507583340650427</v>
+      </c>
+      <c r="K39" s="11" t="str">
+        <f>IF(J$8&gt;J39, "构造配筋 #8@180", "#"&amp;F$8&amp;"@"&amp;FLOOR((F$8/2)^2*PI()*1000/J39, 20) &amp;"   "&amp; FLOOR(((F$8/2)^2*PI()*1000/FLOOR((F$8/2)^2*PI()*1000/J39, 20)),1) &amp; "mm")</f>
+        <v>构造配筋 #8@180</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="J3:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2070" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2070" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2071" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2071" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2072" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2072" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2073" r:id="rId9">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2073" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2074" r:id="rId11">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>807720</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2074" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2075" r:id="rId13">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId14">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2075" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2076" r:id="rId15">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2076" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2077" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2077" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2078" r:id="rId19">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2078" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2081" r:id="rId21">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2081" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2082" r:id="rId23">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2082" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2083" r:id="rId25">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2083" r:id="rId25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2084" r:id="rId27">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2084" r:id="rId27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2085" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2085" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2086" r:id="rId29">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>205740</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2086" r:id="rId29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2087" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>205740</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>388620</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2087" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2088" r:id="rId31">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2088" r:id="rId31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2089" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2089" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2090" r:id="rId33">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2090" r:id="rId33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2091" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2091" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2104" r:id="rId35">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2104" r:id="rId35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2105" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2105" r:id="rId36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2106" r:id="rId37">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2106" r:id="rId37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2107" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2107" r:id="rId38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2110" r:id="rId39">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>693420</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2110" r:id="rId39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2112" r:id="rId41">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId42">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2112" r:id="rId41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2113" r:id="rId43">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId44">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>327660</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>449580</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2113" r:id="rId43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2114" r:id="rId45">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId46">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>335280</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2114" r:id="rId45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2115" r:id="rId47">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId48">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>335280</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>434340</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2115" r:id="rId47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2116" r:id="rId49">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2116" r:id="rId49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2117" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>236220</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>525780</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2117" r:id="rId50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2118" r:id="rId51">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>922020</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>434340</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2118" r:id="rId51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2119" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>182880</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2119" r:id="rId52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2120" r:id="rId53">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>807720</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2120" r:id="rId53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2121" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId14">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>373380</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2121" r:id="rId54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2122" r:id="rId55">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>388620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2122" r:id="rId55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2123" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1165860</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>396240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2123" r:id="rId56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2124" r:id="rId57">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2124" r:id="rId57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2125" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2125" r:id="rId58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2126" r:id="rId59">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2126" r:id="rId59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2127" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2127" r:id="rId60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2128" r:id="rId61">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2128" r:id="rId61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2129" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2129" r:id="rId62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2130" r:id="rId63">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>205740</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2130" r:id="rId63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2131" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>205740</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>388620</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2131" r:id="rId64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2132" r:id="rId65">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2132" r:id="rId65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2133" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2133" r:id="rId66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2134" r:id="rId67">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2134" r:id="rId67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2135" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2135" r:id="rId68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2136" r:id="rId69">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2136" r:id="rId69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2137" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2137" r:id="rId70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2138" r:id="rId71">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>205740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2138" r:id="rId71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2139" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2139" r:id="rId72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2140" r:id="rId73">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>99060</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>693420</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2140" r:id="rId73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2141" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId42">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>106680</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2141" r:id="rId74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2142" r:id="rId75">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId44">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>327660</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>449580</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2142" r:id="rId75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2143" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId46">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>335280</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>198120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2143" r:id="rId76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="2144" r:id="rId77">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId48">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>335280</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>434340</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="2144" r:id="rId77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>